--- a/biology/Botanique/Gisèle_Lamoureux/Gisèle_Lamoureux.xlsx
+++ b/biology/Botanique/Gisèle_Lamoureux/Gisèle_Lamoureux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Lamoureux</t>
+          <t>Gisèle_Lamoureux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gisèle Lamoureux est une photographe, botaniste et écologiste québécoise née à Montréal le 5 octobre 1942 et morte le 23 juin 2018 à Lévis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gisèle Lamoureux est une photographe, botaniste et écologiste québécoise née à Montréal le 5 octobre 1942 et morte le 23 juin 2018 à Lévis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Lamoureux</t>
+          <t>Gisèle_Lamoureux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gisèle Lamoureux naît en 1942 à Montréal. Après avoir été enseignante au primaire, elle obtient un baccalauréat en botanique de l’Université de Montréal et une maîtrise en écologie forestière de l’Université Laval[2]. Elle étudie la photographie nature avec Freeman Patterson.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gisèle Lamoureux naît en 1942 à Montréal. Après avoir été enseignante au primaire, elle obtient un baccalauréat en botanique de l’Université de Montréal et une maîtrise en écologie forestière de l’Université Laval. Elle étudie la photographie nature avec Freeman Patterson.
 En 1973, elle fonde le Groupe Fleurbec, qu’elle dirige depuis le début. Ses neuf guides d’identification sur les plantes sauvages constituent le cœur de son œuvre. S'adressant tant au débutant qu’à l’expert, ils offrent environ 3 000 pages et 1 500 photographies couleurs au sujet de plus de 500 espèces de plantes sauvages de l’est de l’Amérique du Nord. Elle est responsable de la francisation de plus du quart des noms des plantes vasculaires québécoises, en particulier des espèces rares, souvent dépourvues de noms français.
 Avec Ernest Rouleau, spécialiste de la flore de Terre-Neuve, elle cosigne un important volume bilingue d’environ 800 pages, qui comprend près de 1 200 cartes de répartition des plantes de Terre-Neuve et de Saint-Pierre-et-Miquelon.
 Elle est renommée pour ses campagnes de sensibilisation à la vulnérabilité de plantes ou d’habitats fragiles, en particulier, l’ail des bois. Cette initiative compte parmi les événements qui amènent à l’adoption de la Loi sur les espèces menacées ou vulnérables et du règlement protégeant l'ail des bois au Québec.
-En 1996, elle fonde et préside FloraQuebeca, une association sans but lucratif, vouée à la connaissance et la promotion et de la protection de la flore au Québec[3].
-Faisant suite à des réclamations échelonnées sur plus de 35 ans par divers groupes, de 1996 à 1999 elle pilote des démarches énergiques menant à l’adoption par l’Assemblée nationale d’une plante indigène, l’iris versicolore, comme emblème floral du Québec[4].
+En 1996, elle fonde et préside FloraQuebeca, une association sans but lucratif, vouée à la connaissance et la promotion et de la protection de la flore au Québec.
+Faisant suite à des réclamations échelonnées sur plus de 35 ans par divers groupes, de 1996 à 1999 elle pilote des démarches énergiques menant à l’adoption par l’Assemblée nationale d’une plante indigène, l’iris versicolore, comme emblème floral du Québec.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Lamoureux</t>
+          <t>Gisèle_Lamoureux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,19 +561,21 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1971 - L'Arenaria peploides variété robusta forma lamoureuxii est une plante dédiée à Gisèle Lamoureux, qui l’a découverte
-1989 - Prix Georges-Préfontaine de l'Association des biologistes du Québec[5]
-1996 - Chevalière de l’Ordre national du Québec[2]
-1997 - Mérite de la conservation de la flore du Ministère de l’Environnement du Québec[6]
-1998 - Doctorat ès sciences honoris causa de l'Université Laval[7]
-1999 - Membre de l'Ordre du Canada[8]
+1989 - Prix Georges-Préfontaine de l'Association des biologistes du Québec
+1996 - Chevalière de l’Ordre national du Québec
+1997 - Mérite de la conservation de la flore du Ministère de l’Environnement du Québec
+1998 - Doctorat ès sciences honoris causa de l'Université Laval
+1999 - Membre de l'Ordre du Canada
 2002 - Porteuse d’eau. Eau Secours! Coalition québécoise pour une gestion responsable de l’eau.
 2003 - Membre honoraire de FloraQuebeca.
 2004 - Membre honoraire de l'Institut québécois sur la biodiversité (IQBIO).
-2009 - Membre émérite de l'Association des biologistes du Québec[5]
-2015 - Lauréate du prix Georges-Émile-Lapalme[9]
+2009 - Membre émérite de l'Association des biologistes du Québec
+2015 - Lauréate du prix Georges-Émile-Lapalme
 2018 - Prix Étienne-Chartier, comme Patriote de l’année, par la Société nationale des Québécois de Chaudière-Appalaches, pour le 24 juin 2018</t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Lamoureux</t>
+          <t>Gisèle_Lamoureux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Collection et publication de photographies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Collection personnelle de plusieurs dizaines de milliers de photographies documentaires, illustrant les plantes sauvages du Québec dans leur habitat, en lumière naturelle.
 Ces photographies prises par une botaniste ont d’abord une valeur scientifique, car elles mettent en évidence les caractères permettant d’identifier les plantes à l’espèce. Elles ont aussi une valeur esthétique.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gis%C3%A8le_Lamoureux</t>
+          <t>Gisèle_Lamoureux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fleurbec / sous la direction de G. Lamoureux
 2005 - Plantes sauvages au menu. Cuisine raisonnée. 2e édition, revue par Gisèle Lamoureux. Fleurbec éditeur. 192 pages, 128 photos.
